--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8175"/>
+    <workbookView windowWidth="19200" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="开发语言-C#" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
   <si>
     <t>技能点</t>
   </si>
@@ -1145,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,9 +1170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1214,9 +1211,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1758,115 +1752,115 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="H24 L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.02654867256637" style="9"/>
-    <col min="2" max="2" width="15.6991150442478" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.3805309734513" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.02654867256637" style="8"/>
+    <col min="2" max="2" width="15.6991150442478" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.3805309734513" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="13.646017699115" customWidth="1"/>
     <col min="7" max="7" width="9.49557522123894" customWidth="1"/>
     <col min="8" max="8" width="9.24778761061947" customWidth="1"/>
-    <col min="10" max="10" width="14.5663716814159" style="24" customWidth="1"/>
+    <col min="10" max="10" width="14.5663716814159" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
@@ -1874,28 +1868,28 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
@@ -1903,46 +1897,46 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="26"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
@@ -1950,13 +1944,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
@@ -1964,13 +1958,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
@@ -1978,13 +1972,13 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
@@ -1995,13 +1989,13 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F16" t="s">
@@ -2009,24 +2003,24 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="27" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
@@ -2041,29 +2035,29 @@
       <c r="I18" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="26"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="26"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
@@ -2071,26 +2065,26 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="26"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="27" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
@@ -2103,18 +2097,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="26"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="24"/>
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -2123,26 +2117,29 @@
       <c r="G23" t="s">
         <v>34</v>
       </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="27" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="26"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="27" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H25" t="s">
@@ -2151,18 +2148,18 @@
       <c r="I25" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="19" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F26" t="s">
@@ -2173,13 +2170,13 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="26"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
@@ -2187,28 +2184,28 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="26"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="26"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2238,7 +2235,7 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2260,7 +2257,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>"了解,熟悉,掌握,精通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H17 H18:H32 H33:H59 I18:I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H59 I18:I32">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
@@ -2285,692 +2282,692 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.50442477876106" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.6814159292035" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.5929203539823" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.50442477876106" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.6814159292035" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.5929203539823" style="8" customWidth="1"/>
     <col min="4" max="4" width="15.6283185840708" customWidth="1"/>
     <col min="5" max="5" width="14.2035398230088" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="18" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="17"/>
+      <c r="E15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="17"/>
+      <c r="E17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="19" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="19" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="17"/>
+      <c r="E24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="19" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="17"/>
+      <c r="E30" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="21"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="22"/>
+      <c r="E31" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <v>0.38</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="20" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="17"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="20" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="17"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="20" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="17"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="20" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="17"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="20" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F42" s="17"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" ht="27" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="23" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="17"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="15"/>
+      <c r="B45" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="17"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="17"/>
+      <c r="E47" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="19" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="17"/>
+      <c r="E48" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="19" t="s">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="17"/>
+      <c r="E49" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="16"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="15"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="17"/>
+      <c r="E50" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="16"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="15"/>
+      <c r="B51" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="17"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="20" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="22"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -3084,22 +3081,22 @@
       <c r="C2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
         <v>133</v>
       </c>
@@ -3113,18 +3110,18 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
@@ -3134,36 +3131,36 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>132</v>
       </c>
       <c r="P4" s="7"/>

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="136">
   <si>
     <t>技能点</t>
   </si>
@@ -76,6 +76,9 @@
     <t>熟悉</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>命名空间</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>调试程序</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>C#核心编程体系</t>
@@ -450,7 +450,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +475,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1015,137 +1022,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,7 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1752,9 +1762,9 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="H24 L22"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1801,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
@@ -1817,16 +1827,22 @@
       <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="24"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1834,7 +1850,7 @@
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>14</v>
@@ -1844,10 +1860,10 @@
       <c r="A5" s="24"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>14</v>
@@ -1858,16 +1874,16 @@
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="24"/>
       <c r="B7" s="12" t="s">
         <v>22</v>
@@ -1879,10 +1895,13 @@
         <v>24</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="24"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1890,13 +1909,16 @@
         <v>25</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="24"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1904,10 +1926,13 @@
         <v>26</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="24"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1915,7 +1940,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1926,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1937,10 +1965,10 @@
         <v>29</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1954,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1968,10 +1996,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="24"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1982,13 +2010,16 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="24"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1999,10 +2030,13 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2012,34 +2046,37 @@
       <c r="E17" s="18" t="s">
         <v>33</v>
       </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="24"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" s="24"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2048,6 +2085,9 @@
       </c>
       <c r="E19" s="13" t="s">
         <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2058,13 +2098,13 @@
         <v>41</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="24"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -2076,25 +2116,28 @@
       <c r="E21" s="18" t="s">
         <v>33</v>
       </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="24"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2105,54 +2148,57 @@
       <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="24"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="26" t="s">
         <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="24"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="24"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2163,13 +2209,16 @@
         <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="24"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -2180,10 +2229,13 @@
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="24"/>
       <c r="B28" s="12" t="s">
         <v>52</v>
@@ -2191,22 +2243,28 @@
       <c r="C28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="26" t="s">
         <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="6:6">
@@ -2219,7 +2277,7 @@
         <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="4:10">
@@ -2230,10 +2288,10 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J32" s="22" t="s">
         <v>39</v>
@@ -2257,7 +2315,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>"了解,熟悉,掌握,精通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H59 I18:I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H6 H7:H10 H11:H14 H15:H17 H18:H59 I18:I32">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
@@ -2321,7 +2379,7 @@
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="14">
         <v>0.62</v>
@@ -2335,7 +2393,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="16"/>
     </row>
@@ -2347,7 +2405,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="16"/>
     </row>
@@ -2359,7 +2417,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="16"/>
     </row>
@@ -2373,7 +2431,7 @@
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="16"/>
     </row>
@@ -2523,7 +2581,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="16"/>
     </row>
@@ -2703,7 +2761,7 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="14">
         <v>0.38</v>
@@ -2717,7 +2775,7 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="16"/>
     </row>
@@ -2791,7 +2849,7 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" s="16"/>
     </row>
@@ -2865,7 +2923,7 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="16"/>
     </row>
@@ -2941,7 +2999,7 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="16"/>
     </row>

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
   <si>
     <t>技能点</t>
   </si>
@@ -1764,7 +1764,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1845,7 +1845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="24"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1855,8 +1855,11 @@
       <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="24"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1868,8 +1871,11 @@
       <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="24"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1880,6 +1886,9 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1946,7 +1955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="24"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1956,8 +1965,11 @@
       <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="24"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1968,6 +1980,9 @@
         <v>17</v>
       </c>
       <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>15</v>
       </c>
     </row>

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -1764,7 +1764,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="137">
   <si>
     <t>技能点</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>内置引用类型</t>
+  </si>
+  <si>
+    <t>委托</t>
   </si>
   <si>
     <t>考核占比</t>
@@ -1759,12 +1762,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2310,6 +2313,11 @@
       </c>
       <c r="J32" s="22" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2338,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
       <formula1>"了解,熟悉,掌握,精通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H6 H7:H10 H11:H14 H15:H17 H18:H59 I18:I32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F29 H2:H59 I18:I32">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40">
@@ -2379,18 +2387,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
@@ -2404,7 +2412,7 @@
       <c r="A3" s="15"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
@@ -2416,7 +2424,7 @@
       <c r="A4" s="15"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
@@ -2428,7 +2436,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
@@ -2439,10 +2447,10 @@
     <row r="6" spans="1:6">
       <c r="A6" s="15"/>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="13" t="s">
@@ -2454,7 +2462,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="12"/>
       <c r="C7" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
@@ -2466,7 +2474,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="12"/>
       <c r="C8" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
@@ -2478,7 +2486,7 @@
       <c r="A9" s="15"/>
       <c r="B9" s="12"/>
       <c r="C9" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
@@ -2490,10 +2498,10 @@
       <c r="A10" s="15"/>
       <c r="B10" s="12"/>
       <c r="C10" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>33</v>
@@ -2505,7 +2513,7 @@
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
       <c r="D11" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>33</v>
@@ -2517,7 +2525,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="17"/>
       <c r="D12" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>33</v>
@@ -2528,7 +2536,7 @@
       <c r="A13" s="15"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
@@ -2540,7 +2548,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="12"/>
       <c r="C14" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
@@ -2552,10 +2560,10 @@
       <c r="A15" s="15"/>
       <c r="B15" s="12"/>
       <c r="C15" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>33</v>
@@ -2567,7 +2575,7 @@
       <c r="B16" s="12"/>
       <c r="C16" s="17"/>
       <c r="D16" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>33</v>
@@ -2578,10 +2586,10 @@
       <c r="A17" s="15"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>33</v>
@@ -2593,7 +2601,7 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>17</v>
@@ -2605,7 +2613,7 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>14</v>
@@ -2616,10 +2624,10 @@
       <c r="A20" s="15"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>33</v>
@@ -2631,7 +2639,7 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>33</v>
@@ -2643,7 +2651,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>33</v>
@@ -2654,10 +2662,10 @@
       <c r="A23" s="15"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>33</v>
@@ -2669,7 +2677,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>33</v>
@@ -2681,7 +2689,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>33</v>
@@ -2692,10 +2700,10 @@
       <c r="A26" s="15"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>14</v>
@@ -2707,7 +2715,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>14</v>
@@ -2719,7 +2727,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>14</v>
@@ -2731,7 +2739,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>14</v>
@@ -2742,10 +2750,10 @@
       <c r="A30" s="15"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>33</v>
@@ -2757,7 +2765,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>33</v>
@@ -2766,13 +2774,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13" t="s">
@@ -2786,7 +2794,7 @@
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
@@ -2798,7 +2806,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13" t="s">
@@ -2810,7 +2818,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13" t="s">
@@ -2822,7 +2830,7 @@
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="18" t="s">
@@ -2834,7 +2842,7 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13" t="s">
@@ -2846,7 +2854,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="20"/>
       <c r="C38" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="18" t="s">
@@ -2857,10 +2865,10 @@
     <row r="39" spans="1:6">
       <c r="A39" s="15"/>
       <c r="B39" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
@@ -2872,7 +2880,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="18" t="s">
@@ -2884,7 +2892,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="18" t="s">
@@ -2896,7 +2904,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="18" t="s">
@@ -2908,7 +2916,7 @@
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
@@ -2920,7 +2928,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="20"/>
       <c r="C44" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
@@ -2931,10 +2939,10 @@
     <row r="45" spans="1:6">
       <c r="A45" s="15"/>
       <c r="B45" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
@@ -2946,7 +2954,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
@@ -2958,10 +2966,10 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47" s="18" t="s">
         <v>33</v>
@@ -2973,7 +2981,7 @@
       <c r="B48" s="15"/>
       <c r="C48" s="12"/>
       <c r="D48" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" s="18" t="s">
         <v>33</v>
@@ -2985,7 +2993,7 @@
       <c r="B49" s="15"/>
       <c r="C49" s="12"/>
       <c r="D49" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E49" s="18" t="s">
         <v>33</v>
@@ -2997,7 +3005,7 @@
       <c r="B50" s="20"/>
       <c r="C50" s="12"/>
       <c r="D50" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>33</v>
@@ -3007,10 +3015,10 @@
     <row r="51" spans="1:6">
       <c r="A51" s="15"/>
       <c r="B51" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
@@ -3022,7 +3030,7 @@
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
@@ -3034,7 +3042,7 @@
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="18" t="s">
@@ -3093,7 +3101,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5">
         <v>45591</v>
@@ -3146,13 +3154,13 @@
     </row>
     <row r="2" ht="26" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3160,10 +3168,10 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -3171,15 +3179,15 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3200,41 +3208,41 @@
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
   <si>
     <t>技能点</t>
   </si>
@@ -181,6 +181,9 @@
     <t>C#接口</t>
   </si>
   <si>
+    <t>C#高级特性</t>
+  </si>
+  <si>
     <t>C#特性（Attribute）</t>
   </si>
   <si>
@@ -188,9 +191,6 @@
   </si>
   <si>
     <t>C#高级编程体系</t>
-  </si>
-  <si>
-    <t>C#高级特性</t>
   </si>
   <si>
     <t>C#集合(Collection)</t>
@@ -1155,7 +1155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1236,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1765,9 +1774,9 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1989,7 +1998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" s="24"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2002,8 +2011,11 @@
       <c r="F13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="24"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2014,6 +2026,9 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2108,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:8">
       <c r="A20" s="24"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2119,6 +2134,9 @@
         <v>17</v>
       </c>
       <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2163,7 +2181,7 @@
       <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="26" t="s">
@@ -2185,7 +2203,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="24"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="26" t="s">
         <v>48</v>
       </c>
@@ -2199,7 +2217,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="24"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="26" t="s">
         <v>49</v>
       </c>
@@ -2219,9 +2237,11 @@
     <row r="26" spans="1:8">
       <c r="A26" s="24"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="D26" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>33</v>
@@ -2239,9 +2259,9 @@
     <row r="27" spans="1:8">
       <c r="A27" s="24"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="28"/>
       <c r="D27" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>33</v>
@@ -2256,11 +2276,9 @@
     <row r="28" spans="1:8">
       <c r="A28" s="24"/>
       <c r="B28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="C28" s="28"/>
       <c r="D28" s="26" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2292,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="26" t="s">
         <v>55</v>
       </c>
@@ -2315,9 +2333,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:8">
       <c r="F33" t="s">
         <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2331,8 +2352,8 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C20"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C29"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">

--- a/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
+++ b/CSharpBasic/doc/C#桌面应用开发认证_L3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
   <si>
     <t>技能点</t>
   </si>
@@ -1776,7 +1776,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -2303,9 +2303,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="6:8">
       <c r="F30" t="s">
         <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="4:8">
